--- a/Annotations/New/TheGunslinger.xlsx
+++ b/Annotations/New/TheGunslinger.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Niels\Dropbox\University\Workspace\Master\Excel Files\New\Annotated\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Niels\Dropbox\University\Workspace\Master\Excel Files\Annotations\New\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13020" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13020"/>
   </bookViews>
   <sheets>
     <sheet name="gunslinger" sheetId="1" r:id="rId1"/>
@@ -1586,15 +1586,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P230"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A217" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="J230" sqref="J230"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.5546875" style="2" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="0" style="2" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="12.33203125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="15.44140625" style="2" customWidth="1"/>
     <col min="3" max="3" width="41.5546875" style="2" customWidth="1"/>
     <col min="4" max="4" width="60.88671875" style="1" customWidth="1"/>
     <col min="5" max="5" width="48.33203125" style="2" customWidth="1"/>
@@ -1659,7 +1659,7 @@
     <row r="2" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <f t="shared" ref="A2:A65" ca="1" si="0">RAND()</f>
-        <v>0.54812687752425626</v>
+        <v>0.55371262070961158</v>
       </c>
       <c r="B2" s="2">
         <v>59</v>
@@ -1683,7 +1683,7 @@
     <row r="3" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.88604641641666038</v>
+        <v>0.78742900394593562</v>
       </c>
       <c r="B3" s="2">
         <v>176</v>
@@ -1707,7 +1707,7 @@
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.66426983060701683</v>
+        <v>0.31563125822082427</v>
       </c>
       <c r="B4" s="2">
         <v>121</v>
@@ -1731,7 +1731,7 @@
     <row r="5" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.71055323435608508</v>
+        <v>0.85320365414451216</v>
       </c>
       <c r="B5" s="2">
         <v>70</v>
@@ -1752,7 +1752,7 @@
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>4.2345512861608037E-2</v>
+        <v>0.20067305147301662</v>
       </c>
       <c r="B6" s="2">
         <v>163</v>
@@ -1776,7 +1776,7 @@
     <row r="7" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.52801531234955734</v>
+        <v>0.78030573919389812</v>
       </c>
       <c r="B7" s="2">
         <v>106</v>
@@ -1797,7 +1797,7 @@
     <row r="8" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.63401436571963798</v>
+        <v>0.63167717450013006</v>
       </c>
       <c r="B8" s="2">
         <v>169</v>
@@ -1821,7 +1821,7 @@
     <row r="9" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.53119977251212525</v>
+        <v>0.8866366163406324</v>
       </c>
       <c r="B9" s="2">
         <v>31</v>
@@ -1845,7 +1845,7 @@
     <row r="10" spans="1:16" ht="72" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.227345976236624</v>
+        <v>0.68252668886717915</v>
       </c>
       <c r="B10" s="2">
         <v>28</v>
@@ -1869,7 +1869,7 @@
     <row r="11" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.11196331678349225</v>
+        <v>0.2081404314621853</v>
       </c>
       <c r="B11" s="2">
         <v>133</v>
@@ -1896,7 +1896,7 @@
     <row r="12" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.97399339838953525</v>
+        <v>0.68477146850162651</v>
       </c>
       <c r="B12" s="2">
         <v>30</v>
@@ -1920,7 +1920,7 @@
     <row r="13" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.92356052147552026</v>
+        <v>0.39706638340213984</v>
       </c>
       <c r="B13" s="2">
         <v>53</v>
@@ -1944,7 +1944,7 @@
     <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.7038132007055079</v>
+        <v>0.43814513283724776</v>
       </c>
       <c r="B14" s="2">
         <v>142</v>
@@ -1968,7 +1968,7 @@
     <row r="15" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.46753444389807264</v>
+        <v>0.94137747819756956</v>
       </c>
       <c r="B15" s="2">
         <v>186</v>
@@ -1995,7 +1995,7 @@
     <row r="16" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.25475141844549742</v>
+        <v>2.4890186223050614E-2</v>
       </c>
       <c r="B16" s="2">
         <v>58</v>
@@ -2019,7 +2019,7 @@
     <row r="17" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>4.9170310626300506E-2</v>
+        <v>9.385219065543382E-2</v>
       </c>
       <c r="B17" s="2">
         <v>196</v>
@@ -2043,7 +2043,7 @@
     <row r="18" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.70477942796003379</v>
+        <v>0.5913578863741098</v>
       </c>
       <c r="B18" s="2">
         <v>79</v>
@@ -2067,7 +2067,7 @@
     <row r="19" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.81288389862024513</v>
+        <v>0.88884596009832084</v>
       </c>
       <c r="B19" s="2">
         <v>56</v>
@@ -2088,7 +2088,7 @@
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.12098320661848661</v>
+        <v>0.37532355173812892</v>
       </c>
       <c r="B20" s="2">
         <v>110</v>
@@ -2115,7 +2115,7 @@
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.79907041227796027</v>
+        <v>0.33664268051346735</v>
       </c>
       <c r="B21" s="2">
         <v>108</v>
@@ -2139,7 +2139,7 @@
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.57593316861653265</v>
+        <v>0.82489825590828658</v>
       </c>
       <c r="B22" s="2">
         <v>13</v>
@@ -2163,7 +2163,7 @@
     <row r="23" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.64804244496817931</v>
+        <v>3.7958288061087364E-2</v>
       </c>
       <c r="B23" s="2">
         <v>48</v>
@@ -2184,7 +2184,7 @@
     <row r="24" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.78089832141586768</v>
+        <v>7.4229925149532749E-2</v>
       </c>
       <c r="B24" s="2">
         <v>183</v>
@@ -2208,7 +2208,7 @@
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.61758399994811974</v>
+        <v>0.75443971863499459</v>
       </c>
       <c r="B25" s="2">
         <v>210</v>
@@ -2232,7 +2232,7 @@
     <row r="26" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.85234828193623213</v>
+        <v>0.29529954757588184</v>
       </c>
       <c r="B26" s="2">
         <v>10</v>
@@ -2256,7 +2256,7 @@
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.13862264486010634</v>
+        <v>0.34423944604945489</v>
       </c>
       <c r="B27" s="2">
         <v>109</v>
@@ -2277,7 +2277,7 @@
     <row r="28" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.84444428047145093</v>
+        <v>0.87250790228247255</v>
       </c>
       <c r="B28" s="2">
         <v>181</v>
@@ -2304,7 +2304,7 @@
     <row r="29" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.28482786085593037</v>
+        <v>0.19750946625606247</v>
       </c>
       <c r="B29" s="2">
         <v>116</v>
@@ -2328,7 +2328,7 @@
     <row r="30" spans="1:8" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.56810950806021598</v>
+        <v>0.47564699379009612</v>
       </c>
       <c r="B30" s="2">
         <v>96</v>
@@ -2352,7 +2352,7 @@
     <row r="31" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.32387908541891997</v>
+        <v>0.7928428737520562</v>
       </c>
       <c r="B31" s="2">
         <v>26</v>
@@ -2376,7 +2376,7 @@
     <row r="32" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>8.5686497543272733E-2</v>
+        <v>0.95513788983162429</v>
       </c>
       <c r="B32" s="2">
         <v>185</v>
@@ -2400,7 +2400,7 @@
     <row r="33" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.42779815117301756</v>
+        <v>0.58160700569099943</v>
       </c>
       <c r="B33" s="2">
         <v>88</v>
@@ -2424,7 +2424,7 @@
     <row r="34" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.47450574370666276</v>
+        <v>0.58350197497255318</v>
       </c>
       <c r="B34" s="2">
         <v>44</v>
@@ -2445,7 +2445,7 @@
     <row r="35" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.9669034056808341</v>
+        <v>0.84599944575812436</v>
       </c>
       <c r="B35" s="2">
         <v>61</v>
@@ -2469,7 +2469,7 @@
     <row r="36" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.37599544977359978</v>
+        <v>0.8434761920948286</v>
       </c>
       <c r="B36" s="2">
         <v>82</v>
@@ -2490,7 +2490,7 @@
     <row r="37" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.52008955867325779</v>
+        <v>7.3940242801205702E-2</v>
       </c>
       <c r="B37" s="2">
         <v>213</v>
@@ -2511,7 +2511,7 @@
     <row r="38" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.17806338883782824</v>
+        <v>0.69030692310527175</v>
       </c>
       <c r="B38" s="2">
         <v>123</v>
@@ -2532,7 +2532,7 @@
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.6023798707724759</v>
+        <v>0.88249208009763447</v>
       </c>
       <c r="B39" s="2">
         <v>164</v>
@@ -2556,7 +2556,7 @@
     <row r="40" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.98935099938830229</v>
+        <v>0.39662942831736703</v>
       </c>
       <c r="B40" s="2">
         <v>128</v>
@@ -2577,7 +2577,7 @@
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.6049842711653447</v>
+        <v>0.95243017482949832</v>
       </c>
       <c r="B41" s="2">
         <v>81</v>
@@ -2598,7 +2598,7 @@
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.81151631750182529</v>
+        <v>0.82048092615813661</v>
       </c>
       <c r="B42" s="2">
         <v>147</v>
@@ -2622,7 +2622,7 @@
     <row r="43" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>2.7937057319530889E-2</v>
+        <v>0.23687168612404719</v>
       </c>
       <c r="B43" s="2">
         <v>173</v>
@@ -2643,7 +2643,7 @@
     <row r="44" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.61959104071892135</v>
+        <v>0.24052447735181892</v>
       </c>
       <c r="B44" s="2">
         <v>90</v>
@@ -2667,7 +2667,7 @@
     <row r="45" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.62228915431273091</v>
+        <v>0.80037074904100836</v>
       </c>
       <c r="B45" s="2">
         <v>115</v>
@@ -2691,7 +2691,7 @@
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.45521344278437348</v>
+        <v>0.5120155002041723</v>
       </c>
       <c r="B46" s="2">
         <v>112</v>
@@ -2712,7 +2712,7 @@
     <row r="47" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>9.7611745853067089E-2</v>
+        <v>4.8702809461533825E-3</v>
       </c>
       <c r="B47" s="2">
         <v>228</v>
@@ -2736,7 +2736,7 @@
     <row r="48" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.32570765745047303</v>
+        <v>0.22762647501935507</v>
       </c>
       <c r="B48" s="2">
         <v>198</v>
@@ -2760,7 +2760,7 @@
     <row r="49" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.96149679794082599</v>
+        <v>0.13012124208118081</v>
       </c>
       <c r="B49" s="2">
         <v>226</v>
@@ -2787,7 +2787,7 @@
     <row r="50" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.57215608662774942</v>
+        <v>0.50024794184096844</v>
       </c>
       <c r="B50" s="2">
         <v>104</v>
@@ -2811,7 +2811,7 @@
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.91110839573175095</v>
+        <v>0.88633491543612863</v>
       </c>
       <c r="B51" s="2">
         <v>140</v>
@@ -2832,7 +2832,7 @@
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>5.4896525361141646E-2</v>
+        <v>0.43510789253469029</v>
       </c>
       <c r="B52" s="2">
         <v>129</v>
@@ -2856,7 +2856,7 @@
     <row r="53" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A53" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.49012724018523868</v>
+        <v>0.62957910264435246</v>
       </c>
       <c r="B53" s="2">
         <v>204</v>
@@ -2880,7 +2880,7 @@
     <row r="54" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A54" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.5402950593171022</v>
+        <v>0.65099846216426982</v>
       </c>
       <c r="B54" s="2">
         <v>38</v>
@@ -2904,7 +2904,7 @@
     <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.66905079602188866</v>
+        <v>0.78441047718584445</v>
       </c>
       <c r="B55" s="2">
         <v>47</v>
@@ -2925,7 +2925,7 @@
     <row r="56" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A56" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.22207506011099698</v>
+        <v>0.7132151345638521</v>
       </c>
       <c r="B56" s="2">
         <v>17</v>
@@ -2949,7 +2949,7 @@
     <row r="57" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A57" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.81113599595906105</v>
+        <v>0.67474945889931903</v>
       </c>
       <c r="B57" s="2">
         <v>50</v>
@@ -2970,7 +2970,7 @@
     <row r="58" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A58" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.83844380416261688</v>
+        <v>0.33572609633924633</v>
       </c>
       <c r="B58" s="2">
         <v>157</v>
@@ -2994,7 +2994,7 @@
     <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.82491667944467695</v>
+        <v>0.38813333795501836</v>
       </c>
       <c r="B59" s="2">
         <v>130</v>
@@ -3015,7 +3015,7 @@
     <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.95550389031940186</v>
+        <v>0.81272234659321274</v>
       </c>
       <c r="B60" s="2">
         <v>131</v>
@@ -3036,7 +3036,7 @@
     <row r="61" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A61" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.13211503984662476</v>
+        <v>0.68254215017569864</v>
       </c>
       <c r="B61" s="2">
         <v>103</v>
@@ -3060,7 +3060,7 @@
     <row r="62" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A62" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.75916697760569429</v>
+        <v>0.63068836488331548</v>
       </c>
       <c r="B62" s="2">
         <v>8</v>
@@ -3081,7 +3081,7 @@
     <row r="63" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A63" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.71279981719367602</v>
+        <v>0.48315496076276887</v>
       </c>
       <c r="B63" s="2">
         <v>66</v>
@@ -3102,7 +3102,7 @@
     <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.14562839577297382</v>
+        <v>0.23289704317687376</v>
       </c>
       <c r="B64" s="2">
         <v>143</v>
@@ -3126,7 +3126,7 @@
     <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.72021641941494119</v>
+        <v>8.9370283397275818E-2</v>
       </c>
       <c r="B65" s="2">
         <v>201</v>
@@ -3150,7 +3150,7 @@
     <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" s="2">
         <f t="shared" ref="A66:A129" ca="1" si="1">RAND()</f>
-        <v>0.96731861519950157</v>
+        <v>0.80444058759033321</v>
       </c>
       <c r="B66" s="2">
         <v>154</v>
@@ -3177,7 +3177,7 @@
     <row r="67" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A67" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.59792385499107359</v>
+        <v>0.61647593850505378</v>
       </c>
       <c r="B67" s="2">
         <v>182</v>
@@ -3204,7 +3204,7 @@
     <row r="68" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A68" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.16517036347697023</v>
+        <v>0.84105471201304771</v>
       </c>
       <c r="B68" s="2">
         <v>168</v>
@@ -3231,7 +3231,7 @@
     <row r="69" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A69" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.59177962008189167</v>
+        <v>0.474107098871003</v>
       </c>
       <c r="B69" s="2">
         <v>134</v>
@@ -3255,7 +3255,7 @@
     <row r="70" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A70" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>6.2880775388737264E-3</v>
+        <v>0.23372702027319769</v>
       </c>
       <c r="B70" s="2">
         <v>175</v>
@@ -3276,7 +3276,7 @@
     <row r="71" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A71" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.18617479220187194</v>
+        <v>0.12574323263611875</v>
       </c>
       <c r="B71" s="2">
         <v>5</v>
@@ -3297,7 +3297,7 @@
     <row r="72" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A72" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.57816077758287909</v>
+        <v>6.3359005534900925E-2</v>
       </c>
       <c r="B72" s="2">
         <v>189</v>
@@ -3318,7 +3318,7 @@
     <row r="73" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A73" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.13024671016858713</v>
+        <v>0.14836196590853501</v>
       </c>
       <c r="B73" s="2">
         <v>101</v>
@@ -3342,7 +3342,7 @@
     <row r="74" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A74" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.3012860747520183</v>
+        <v>0.20371192627394119</v>
       </c>
       <c r="B74" s="2">
         <v>93</v>
@@ -3366,7 +3366,7 @@
     <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>4.1920984683071927E-2</v>
+        <v>0.2849375308547698</v>
       </c>
       <c r="B75" s="2">
         <v>160</v>
@@ -3390,7 +3390,7 @@
     <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.25656614623113949</v>
+        <v>0.14978458511073367</v>
       </c>
       <c r="B76" s="2">
         <v>217</v>
@@ -3411,7 +3411,7 @@
     <row r="77" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A77" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>9.3538240680062668E-2</v>
+        <v>0.92680585425190887</v>
       </c>
       <c r="B77" s="2">
         <v>27</v>
@@ -3435,7 +3435,7 @@
     <row r="78" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A78" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.15703912567770462</v>
+        <v>0.36069653574789118</v>
       </c>
       <c r="B78" s="2">
         <v>83</v>
@@ -3459,7 +3459,7 @@
     <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.5251762121116087</v>
+        <v>0.49515847029723392</v>
       </c>
       <c r="B79" s="2">
         <v>229</v>
@@ -3480,7 +3480,7 @@
     <row r="80" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A80" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>2.4768140789060533E-2</v>
+        <v>0.5088251589643612</v>
       </c>
       <c r="B80" s="2">
         <v>42</v>
@@ -3507,7 +3507,7 @@
     <row r="81" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A81" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.41559960198960644</v>
+        <v>0.7300803845392082</v>
       </c>
       <c r="B81" s="2">
         <v>86</v>
@@ -3531,7 +3531,7 @@
     <row r="82" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A82" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.89868315223259898</v>
+        <v>1.0467281021430574E-2</v>
       </c>
       <c r="B82" s="2">
         <v>122</v>
@@ -3555,7 +3555,7 @@
     <row r="83" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A83" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.61685219310188477</v>
+        <v>0.74422099626085081</v>
       </c>
       <c r="B83" s="2">
         <v>206</v>
@@ -3582,7 +3582,7 @@
     <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.3649529388629843</v>
+        <v>0.68001921998920556</v>
       </c>
       <c r="B84" s="2">
         <v>114</v>
@@ -3606,7 +3606,7 @@
     <row r="85" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A85" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.65219617789256323</v>
+        <v>0.21411862696626394</v>
       </c>
       <c r="B85" s="2">
         <v>207</v>
@@ -3627,7 +3627,7 @@
     <row r="86" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A86" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.31509757293557583</v>
+        <v>0.59159583452721876</v>
       </c>
       <c r="B86" s="2">
         <v>118</v>
@@ -3654,7 +3654,7 @@
     <row r="87" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A87" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>4.5338542366282986E-2</v>
+        <v>0.3573849814665081</v>
       </c>
       <c r="B87" s="2">
         <v>194</v>
@@ -3678,7 +3678,7 @@
     <row r="88" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A88" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.54830461221756444</v>
+        <v>0.64372397276375382</v>
       </c>
       <c r="B88" s="2">
         <v>49</v>
@@ -3702,7 +3702,7 @@
     <row r="89" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A89" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>8.8633593941790045E-2</v>
+        <v>0.81558845250667478</v>
       </c>
       <c r="B89" s="2">
         <v>200</v>
@@ -3723,7 +3723,7 @@
     <row r="90" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A90" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>7.9096829155543058E-2</v>
+        <v>0.98692700357738539</v>
       </c>
       <c r="B90" s="2">
         <v>150</v>
@@ -3744,7 +3744,7 @@
     <row r="91" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A91" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.24900583100710427</v>
+        <v>2.9875294490492643E-2</v>
       </c>
       <c r="B91" s="2">
         <v>227</v>
@@ -3771,7 +3771,7 @@
     <row r="92" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A92" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>7.4737612176433266E-2</v>
+        <v>0.67644011290734307</v>
       </c>
       <c r="B92" s="2">
         <v>171</v>
@@ -3795,7 +3795,7 @@
     <row r="93" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A93" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.68263793746153367</v>
+        <v>9.830426627641109E-3</v>
       </c>
       <c r="B93" s="2">
         <v>135</v>
@@ -3816,7 +3816,7 @@
     <row r="94" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A94" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.70617848017619678</v>
+        <v>0.53537157190795182</v>
       </c>
       <c r="B94" s="2">
         <v>72</v>
@@ -3840,7 +3840,7 @@
     <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.57813242712439894</v>
+        <v>3.8952089761878916E-3</v>
       </c>
       <c r="B95" s="2">
         <v>138</v>
@@ -3864,7 +3864,7 @@
     <row r="96" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A96" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.13712436351841684</v>
+        <v>0.54506043222792644</v>
       </c>
       <c r="B96" s="2">
         <v>197</v>
@@ -3891,7 +3891,7 @@
     <row r="97" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A97" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.84230378110081239</v>
+        <v>0.97402943500835459</v>
       </c>
       <c r="B97" s="2">
         <v>43</v>
@@ -3915,7 +3915,7 @@
     <row r="98" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A98" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.85861865179808128</v>
+        <v>0.63640753463491573</v>
       </c>
       <c r="B98" s="2">
         <v>184</v>
@@ -3942,7 +3942,7 @@
     <row r="99" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A99" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.95099534398847774</v>
+        <v>0.7577168059946886</v>
       </c>
       <c r="B99" s="2">
         <v>223</v>
@@ -3963,7 +3963,7 @@
     <row r="100" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A100" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.15825250246420419</v>
+        <v>1.0942865948109337E-2</v>
       </c>
       <c r="B100" s="2">
         <v>77</v>
@@ -3984,7 +3984,7 @@
     <row r="101" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A101" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>8.2470494503895431E-2</v>
+        <v>0.51664878864403663</v>
       </c>
       <c r="B101" s="2">
         <v>57</v>
@@ -4005,7 +4005,7 @@
     <row r="102" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A102" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.10063055805422216</v>
+        <v>0.72681284878866015</v>
       </c>
       <c r="B102" s="2">
         <v>16</v>
@@ -4029,7 +4029,7 @@
     <row r="103" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A103" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.65521025063525407</v>
+        <v>0.53595471815653861</v>
       </c>
       <c r="B103" s="2">
         <v>219</v>
@@ -4050,7 +4050,7 @@
     <row r="104" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A104" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.80302234961305397</v>
+        <v>0.38462583254319793</v>
       </c>
       <c r="B104" s="2">
         <v>23</v>
@@ -4071,7 +4071,7 @@
     <row r="105" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A105" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.79171944032124364</v>
+        <v>0.91787455184958899</v>
       </c>
       <c r="B105" s="2">
         <v>37</v>
@@ -4092,7 +4092,7 @@
     <row r="106" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A106" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.24093839375043358</v>
+        <v>0.22027329871350521</v>
       </c>
       <c r="B106" s="2">
         <v>15</v>
@@ -4113,7 +4113,7 @@
     <row r="107" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A107" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.20964753746399545</v>
+        <v>0.16867109443080142</v>
       </c>
       <c r="B107" s="2">
         <v>62</v>
@@ -4137,7 +4137,7 @@
     <row r="108" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A108" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.48762555356680537</v>
+        <v>0.86825699376352328</v>
       </c>
       <c r="B108" s="2">
         <v>63</v>
@@ -4161,7 +4161,7 @@
     <row r="109" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A109" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.45850359969479804</v>
+        <v>0.68538515622433349</v>
       </c>
       <c r="B109" s="2">
         <v>127</v>
@@ -4185,7 +4185,7 @@
     <row r="110" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A110" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.30506528873685801</v>
+        <v>1.9321161079737137E-2</v>
       </c>
       <c r="B110" s="2">
         <v>36</v>
@@ -4206,7 +4206,7 @@
     <row r="111" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A111" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.24282686163011014</v>
+        <v>0.32523948942144409</v>
       </c>
       <c r="B111" s="2">
         <v>177</v>
@@ -4230,7 +4230,7 @@
     <row r="112" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A112" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.21972208754744194</v>
+        <v>0.16613853447085025</v>
       </c>
       <c r="B112" s="2">
         <v>75</v>
@@ -4254,7 +4254,7 @@
     <row r="113" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A113" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.43968397455991837</v>
+        <v>0.46873178981653574</v>
       </c>
       <c r="B113" s="2">
         <v>193</v>
@@ -4275,7 +4275,7 @@
     <row r="114" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A114" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.2863417243648404</v>
+        <v>8.8591982261273294E-2</v>
       </c>
       <c r="B114" s="2">
         <v>161</v>
@@ -4296,7 +4296,7 @@
     <row r="115" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A115" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.79186019213094139</v>
+        <v>0.51479639078161221</v>
       </c>
       <c r="B115" s="2">
         <v>205</v>
@@ -4320,7 +4320,7 @@
     <row r="116" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A116" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.78655385119841292</v>
+        <v>0.84111978635507323</v>
       </c>
       <c r="B116" s="2">
         <v>84</v>
@@ -4341,7 +4341,7 @@
     <row r="117" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A117" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.71075873401040923</v>
+        <v>0.11699024888250265</v>
       </c>
       <c r="B117" s="2">
         <v>220</v>
@@ -4365,7 +4365,7 @@
     <row r="118" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A118" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.37469617160421476</v>
+        <v>0.79797090689681438</v>
       </c>
       <c r="B118" s="2">
         <v>126</v>
@@ -4389,7 +4389,7 @@
     <row r="119" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A119" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.79746475973006603</v>
+        <v>0.53918928271449273</v>
       </c>
       <c r="B119" s="2">
         <v>166</v>
@@ -4416,7 +4416,7 @@
     <row r="120" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A120" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.51183485031265707</v>
+        <v>0.43437354985148535</v>
       </c>
       <c r="B120" s="2">
         <v>120</v>
@@ -4443,7 +4443,7 @@
     <row r="121" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A121" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.95517036435883063</v>
+        <v>0.66184140107266642</v>
       </c>
       <c r="B121" s="2">
         <v>162</v>
@@ -4467,7 +4467,7 @@
     <row r="122" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A122" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.73840069669867259</v>
+        <v>0.94646352372110099</v>
       </c>
       <c r="B122" s="2">
         <v>191</v>
@@ -4491,7 +4491,7 @@
     <row r="123" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A123" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.46337216831576522</v>
+        <v>0.72613564318960766</v>
       </c>
       <c r="B123" s="2">
         <v>41</v>
@@ -4512,7 +4512,7 @@
     <row r="124" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A124" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.55483061604590822</v>
+        <v>0.31901156919245099</v>
       </c>
       <c r="B124" s="2">
         <v>100</v>
@@ -4539,7 +4539,7 @@
     <row r="125" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A125" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.2867011955824027</v>
+        <v>0.46928703939138383</v>
       </c>
       <c r="B125" s="2">
         <v>20</v>
@@ -4563,7 +4563,7 @@
     <row r="126" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A126" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>1.3734142533036731E-2</v>
+        <v>0.13717160978723597</v>
       </c>
       <c r="B126" s="2">
         <v>137</v>
@@ -4587,7 +4587,7 @@
     <row r="127" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A127" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.66649485729963465</v>
+        <v>0.47404565604600679</v>
       </c>
       <c r="B127" s="2">
         <v>148</v>
@@ -4611,7 +4611,7 @@
     <row r="128" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A128" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.94986915484895329</v>
+        <v>0.83415927068655171</v>
       </c>
       <c r="B128" s="2">
         <v>159</v>
@@ -4632,7 +4632,7 @@
     <row r="129" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A129" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.71542557271959695</v>
+        <v>0.82724570217703164</v>
       </c>
       <c r="B129" s="2">
         <v>7</v>
@@ -4656,7 +4656,7 @@
     <row r="130" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A130" s="2">
         <f t="shared" ref="A130:A193" ca="1" si="2">RAND()</f>
-        <v>0.77043935314248213</v>
+        <v>0.47843570611761332</v>
       </c>
       <c r="B130" s="2">
         <v>51</v>
@@ -4680,7 +4680,7 @@
     <row r="131" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A131" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.37486952854454314</v>
+        <v>0.56326851233839914</v>
       </c>
       <c r="B131" s="2">
         <v>65</v>
@@ -4704,7 +4704,7 @@
     <row r="132" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A132" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.50578325160265669</v>
+        <v>0.41524982483360406</v>
       </c>
       <c r="B132" s="2">
         <v>188</v>
@@ -4731,7 +4731,7 @@
     <row r="133" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A133" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.78064745162750182</v>
+        <v>0.64310567215444181</v>
       </c>
       <c r="B133" s="2">
         <v>3</v>
@@ -4752,7 +4752,7 @@
     <row r="134" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A134" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.1378871555979414</v>
+        <v>0.9617073850602823</v>
       </c>
       <c r="B134" s="2">
         <v>158</v>
@@ -4776,7 +4776,7 @@
     <row r="135" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A135" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.61094881993775618</v>
+        <v>0.62617969175928168</v>
       </c>
       <c r="B135" s="2">
         <v>222</v>
@@ -4797,7 +4797,7 @@
     <row r="136" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A136" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.70844760569380161</v>
+        <v>0.91639147338279037</v>
       </c>
       <c r="B136" s="2">
         <v>199</v>
@@ -4821,7 +4821,7 @@
     <row r="137" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A137" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.62321026634123544</v>
+        <v>0.33921040176500783</v>
       </c>
       <c r="B137" s="2">
         <v>172</v>
@@ -4845,7 +4845,7 @@
     <row r="138" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A138" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.86801186472318359</v>
+        <v>0.35160545124127007</v>
       </c>
       <c r="B138" s="2">
         <v>117</v>
@@ -4872,7 +4872,7 @@
     <row r="139" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A139" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.63874001570456984</v>
+        <v>0.48092948528061819</v>
       </c>
       <c r="B139" s="2">
         <v>146</v>
@@ -4896,7 +4896,7 @@
     <row r="140" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A140" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.81574594224013885</v>
+        <v>0.11668484648854061</v>
       </c>
       <c r="B140" s="2">
         <v>211</v>
@@ -4920,7 +4920,7 @@
     <row r="141" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A141" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.81290540549461354</v>
+        <v>0.77017290147095363</v>
       </c>
       <c r="B141" s="2">
         <v>9</v>
@@ -4944,7 +4944,7 @@
     <row r="142" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A142" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.42090006821572945</v>
+        <v>0.37707077756104368</v>
       </c>
       <c r="B142" s="2">
         <v>39</v>
@@ -4968,7 +4968,7 @@
     <row r="143" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A143" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.25255490134999081</v>
+        <v>0.42498924649771985</v>
       </c>
       <c r="B143" s="2">
         <v>85</v>
@@ -4992,7 +4992,7 @@
     <row r="144" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A144" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.76695100423987272</v>
+        <v>0.26324770854480661</v>
       </c>
       <c r="B144" s="2">
         <v>149</v>
@@ -5022,7 +5022,7 @@
     <row r="145" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A145" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.73784565614606001</v>
+        <v>0.16266255900622861</v>
       </c>
       <c r="B145" s="2">
         <v>208</v>
@@ -5043,7 +5043,7 @@
     <row r="146" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A146" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.24280555397554515</v>
+        <v>0.78286669068894488</v>
       </c>
       <c r="B146" s="2">
         <v>165</v>
@@ -5067,7 +5067,7 @@
     <row r="147" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A147" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.91238754727762716</v>
+        <v>0.80725990822303983</v>
       </c>
       <c r="B147" s="2">
         <v>6</v>
@@ -5091,7 +5091,7 @@
     <row r="148" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A148" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.58799222657235317</v>
+        <v>0.42675658953957951</v>
       </c>
       <c r="B148" s="2">
         <v>2</v>
@@ -5112,7 +5112,7 @@
     <row r="149" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A149" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.81731463081802747</v>
+        <v>4.5837332493336769E-2</v>
       </c>
       <c r="B149" s="2">
         <v>94</v>
@@ -5136,7 +5136,7 @@
     <row r="150" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A150" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.31973182729379968</v>
+        <v>7.9796774788230884E-2</v>
       </c>
       <c r="B150" s="2">
         <v>14</v>
@@ -5160,7 +5160,7 @@
     <row r="151" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A151" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.38222119668170673</v>
+        <v>0.48479732118862384</v>
       </c>
       <c r="B151" s="2">
         <v>29</v>
@@ -5187,7 +5187,7 @@
     <row r="152" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A152" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.56325200105539852</v>
+        <v>0.4391488351126388</v>
       </c>
       <c r="B152" s="2">
         <v>221</v>
@@ -5208,7 +5208,7 @@
     <row r="153" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A153" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.39198832228500635</v>
+        <v>0.24243009788018566</v>
       </c>
       <c r="B153" s="2">
         <v>33</v>
@@ -5229,7 +5229,7 @@
     <row r="154" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A154" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.30455532043183242</v>
+        <v>0.69340620271061182</v>
       </c>
       <c r="B154" s="2">
         <v>69</v>
@@ -5250,7 +5250,7 @@
     <row r="155" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A155" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>9.1433892910515513E-2</v>
+        <v>0.41232334433179674</v>
       </c>
       <c r="B155" s="2">
         <v>25</v>
@@ -5274,7 +5274,7 @@
     <row r="156" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A156" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.26317493542412163</v>
+        <v>0.70344468120045545</v>
       </c>
       <c r="B156" s="2">
         <v>95</v>
@@ -5301,7 +5301,7 @@
     <row r="157" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A157" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.21953296521941568</v>
+        <v>0.9728394281970677</v>
       </c>
       <c r="B157" s="2">
         <v>195</v>
@@ -5325,7 +5325,7 @@
     <row r="158" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A158" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.19988752907638407</v>
+        <v>0.57709639489407649</v>
       </c>
       <c r="B158" s="2">
         <v>225</v>
@@ -5346,7 +5346,7 @@
     <row r="159" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A159" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.74589164612445591</v>
+        <v>0.78289249420532259</v>
       </c>
       <c r="B159" s="2">
         <v>97</v>
@@ -5370,7 +5370,7 @@
     <row r="160" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A160" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.73799467466431345</v>
+        <v>0.18842210616643895</v>
       </c>
       <c r="B160" s="2">
         <v>74</v>
@@ -5391,7 +5391,7 @@
     <row r="161" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A161" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.4792239659741625</v>
+        <v>0.64553290880820691</v>
       </c>
       <c r="B161" s="2">
         <v>136</v>
@@ -5418,7 +5418,7 @@
     <row r="162" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A162" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.8688809875482949</v>
+        <v>0.87190721644084057</v>
       </c>
       <c r="B162" s="2">
         <v>174</v>
@@ -5445,7 +5445,7 @@
     <row r="163" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A163" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.68161675897606144</v>
+        <v>0.73790929739516875</v>
       </c>
       <c r="B163" s="2">
         <v>54</v>
@@ -5466,7 +5466,7 @@
     <row r="164" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A164" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.37589047194988312</v>
+        <v>0.90628569184663632</v>
       </c>
       <c r="B164" s="2">
         <v>18</v>
@@ -5487,7 +5487,7 @@
     <row r="165" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A165" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.33011473948380732</v>
+        <v>0.30499170163620837</v>
       </c>
       <c r="B165" s="2">
         <v>178</v>
@@ -5508,7 +5508,7 @@
     <row r="166" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A166" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.95010108697001883</v>
+        <v>0.10308648452652558</v>
       </c>
       <c r="B166" s="2">
         <v>151</v>
@@ -5532,7 +5532,7 @@
     <row r="167" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A167" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.35297058749760857</v>
+        <v>0.17389739622873024</v>
       </c>
       <c r="B167" s="2">
         <v>24</v>
@@ -5553,7 +5553,7 @@
     <row r="168" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A168" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.27661576668856136</v>
+        <v>0.14592627555125293</v>
       </c>
       <c r="B168" s="2">
         <v>202</v>
@@ -5574,7 +5574,7 @@
     <row r="169" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A169" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.6812515923596637</v>
+        <v>0.7827629727630484</v>
       </c>
       <c r="B169" s="2">
         <v>4</v>
@@ -5595,7 +5595,7 @@
     <row r="170" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A170" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.81515947952887868</v>
+        <v>0.42266333860976946</v>
       </c>
       <c r="B170" s="2">
         <v>224</v>
@@ -5619,7 +5619,7 @@
     <row r="171" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A171" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>8.9544459031378199E-2</v>
+        <v>0.18703262262637765</v>
       </c>
       <c r="B171" s="2">
         <v>167</v>
@@ -5646,7 +5646,7 @@
     <row r="172" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A172" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>2.0625058466663515E-2</v>
+        <v>0.45528470320439329</v>
       </c>
       <c r="B172" s="2">
         <v>170</v>
@@ -5667,7 +5667,7 @@
     <row r="173" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A173" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.39977302343438259</v>
+        <v>0.77626612296116004</v>
       </c>
       <c r="B173" s="2">
         <v>89</v>
@@ -5691,7 +5691,7 @@
     <row r="174" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A174" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.6085244207924394</v>
+        <v>0.68044898626794637</v>
       </c>
       <c r="B174" s="2">
         <v>55</v>
@@ -5718,7 +5718,7 @@
     <row r="175" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A175" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.27874832967572438</v>
+        <v>0.91355644265133273</v>
       </c>
       <c r="B175" s="2">
         <v>216</v>
@@ -5739,7 +5739,7 @@
     <row r="176" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A176" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>1.8606367425726633E-2</v>
+        <v>0.3999460072076938</v>
       </c>
       <c r="B176" s="2">
         <v>111</v>
@@ -5766,7 +5766,7 @@
     <row r="177" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A177" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.8459504827867359</v>
+        <v>0.7698580875698251</v>
       </c>
       <c r="B177" s="2">
         <v>87</v>
@@ -5787,7 +5787,7 @@
     <row r="178" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A178" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.47429626868936225</v>
+        <v>0.18333289333793346</v>
       </c>
       <c r="B178" s="2">
         <v>80</v>
@@ -5811,7 +5811,7 @@
     <row r="179" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A179" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.32735002456244522</v>
+        <v>0.35120715379374889</v>
       </c>
       <c r="B179" s="2">
         <v>209</v>
@@ -5832,7 +5832,7 @@
     <row r="180" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A180" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.61353091506937774</v>
+        <v>0.85751267352558758</v>
       </c>
       <c r="B180" s="2">
         <v>35</v>
@@ -5856,7 +5856,7 @@
     <row r="181" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A181" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>7.930552289706172E-2</v>
+        <v>0.84558832145001672</v>
       </c>
       <c r="B181" s="2">
         <v>102</v>
@@ -5883,7 +5883,7 @@
     <row r="182" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A182" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.67587959093149486</v>
+        <v>0.40204055494526914</v>
       </c>
       <c r="B182" s="2">
         <v>214</v>
@@ -5904,7 +5904,7 @@
     <row r="183" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A183" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>5.152811234269139E-3</v>
+        <v>0.28900817146398994</v>
       </c>
       <c r="B183" s="2">
         <v>12</v>
@@ -5928,7 +5928,7 @@
     <row r="184" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A184" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.58140403035567512</v>
+        <v>0.39897436091189353</v>
       </c>
       <c r="B184" s="2">
         <v>60</v>
@@ -5955,7 +5955,7 @@
     <row r="185" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A185" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.22292812900338932</v>
+        <v>0.89276972469557248</v>
       </c>
       <c r="B185" s="2">
         <v>125</v>
@@ -5982,7 +5982,7 @@
     <row r="186" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A186" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.68889721918393365</v>
+        <v>0.34552972610741595</v>
       </c>
       <c r="B186" s="2">
         <v>52</v>
@@ -6003,7 +6003,7 @@
     <row r="187" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A187" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.47761930492862248</v>
+        <v>0.50727229334685819</v>
       </c>
       <c r="B187" s="2">
         <v>92</v>
@@ -6027,7 +6027,7 @@
     <row r="188" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A188" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.70649544842626222</v>
+        <v>0.55208533622017908</v>
       </c>
       <c r="B188" s="2">
         <v>179</v>
@@ -6051,7 +6051,7 @@
     <row r="189" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A189" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.6188545178880972</v>
+        <v>0.79495765796180584</v>
       </c>
       <c r="B189" s="2">
         <v>71</v>
@@ -6072,7 +6072,7 @@
     <row r="190" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A190" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.81808608245979275</v>
+        <v>0.53432013602514072</v>
       </c>
       <c r="B190" s="2">
         <v>124</v>
@@ -6099,7 +6099,7 @@
     <row r="191" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A191" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.50818410377981615</v>
+        <v>0.6142679707337878</v>
       </c>
       <c r="B191" s="2">
         <v>141</v>
@@ -6120,7 +6120,7 @@
     <row r="192" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A192" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.4312712452340115</v>
+        <v>0.31100308692929957</v>
       </c>
       <c r="B192" s="2">
         <v>68</v>
@@ -6141,7 +6141,7 @@
     <row r="193" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A193" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.27770394260133147</v>
+        <v>0.3938052314707402</v>
       </c>
       <c r="B193" s="2">
         <v>139</v>
@@ -6162,7 +6162,7 @@
     <row r="194" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A194" s="2">
         <f t="shared" ref="A194:A230" ca="1" si="3">RAND()</f>
-        <v>0.6406331328242274</v>
+        <v>0.4356251021215588</v>
       </c>
       <c r="B194" s="2">
         <v>155</v>
@@ -6183,7 +6183,7 @@
     <row r="195" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A195" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.97704622996361634</v>
+        <v>0.44597823438688533</v>
       </c>
       <c r="B195" s="2">
         <v>73</v>
@@ -6204,7 +6204,7 @@
     <row r="196" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A196" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.85846770984432652</v>
+        <v>0.39379139920581907</v>
       </c>
       <c r="B196" s="2">
         <v>180</v>
@@ -6225,7 +6225,7 @@
     <row r="197" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A197" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.90655649045606257</v>
+        <v>0.22846737758299029</v>
       </c>
       <c r="B197" s="2">
         <v>32</v>
@@ -6249,7 +6249,7 @@
     <row r="198" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A198" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.40003925934427287</v>
+        <v>0.95612803180448325</v>
       </c>
       <c r="B198" s="2">
         <v>218</v>
@@ -6273,7 +6273,7 @@
     <row r="199" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A199" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.19486927576866087</v>
+        <v>0.4970806795926499</v>
       </c>
       <c r="B199" s="2">
         <v>192</v>
@@ -6297,7 +6297,7 @@
     <row r="200" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A200" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.21310212026706432</v>
+        <v>0.35458526419564329</v>
       </c>
       <c r="B200" s="2">
         <v>11</v>
@@ -6321,7 +6321,7 @@
     <row r="201" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A201" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.76823578602409304</v>
+        <v>0.66182786637703905</v>
       </c>
       <c r="B201" s="2">
         <v>64</v>
@@ -6342,7 +6342,7 @@
     <row r="202" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A202" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.14616496424515568</v>
+        <v>0.92755756687273594</v>
       </c>
       <c r="B202" s="2">
         <v>215</v>
@@ -6366,7 +6366,7 @@
     <row r="203" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A203" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.45351913480215711</v>
+        <v>0.75736310102286108</v>
       </c>
       <c r="B203" s="2">
         <v>34</v>
@@ -6387,7 +6387,7 @@
     <row r="204" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A204" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.15419849948825082</v>
+        <v>0.23248320980947124</v>
       </c>
       <c r="B204" s="2">
         <v>91</v>
@@ -6414,7 +6414,7 @@
     <row r="205" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A205" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.66257711988397694</v>
+        <v>0.63281109589326667</v>
       </c>
       <c r="B205" s="2">
         <v>132</v>
@@ -6438,7 +6438,7 @@
     <row r="206" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A206" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.93931223239454598</v>
+        <v>0.83357189049828495</v>
       </c>
       <c r="B206" s="2">
         <v>22</v>
@@ -6459,7 +6459,7 @@
     <row r="207" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A207" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.80393405660940098</v>
+        <v>0.54950620311205201</v>
       </c>
       <c r="B207" s="2">
         <v>190</v>
@@ -6480,7 +6480,7 @@
     <row r="208" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A208" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>7.499642212403268E-2</v>
+        <v>0.80193482506458935</v>
       </c>
       <c r="B208" s="2">
         <v>76</v>
@@ -6501,7 +6501,7 @@
     <row r="209" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A209" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.30959988421288998</v>
+        <v>0.184313568680878</v>
       </c>
       <c r="B209" s="2">
         <v>21</v>
@@ -6522,7 +6522,7 @@
     <row r="210" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A210" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>3.7664029585786074E-2</v>
+        <v>0.26428428353568378</v>
       </c>
       <c r="B210" s="2">
         <v>212</v>
@@ -6549,7 +6549,7 @@
     <row r="211" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A211" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.30089694557064828</v>
+        <v>0.80206409078951402</v>
       </c>
       <c r="B211" s="2">
         <v>45</v>
@@ -6570,7 +6570,7 @@
     <row r="212" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A212" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.18736186954913159</v>
+        <v>0.74869907505955335</v>
       </c>
       <c r="B212" s="2">
         <v>153</v>
@@ -6594,7 +6594,7 @@
     <row r="213" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A213" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.60482017310686131</v>
+        <v>6.9540717405557451E-2</v>
       </c>
       <c r="B213" s="2">
         <v>1</v>
@@ -6615,7 +6615,7 @@
     <row r="214" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A214" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.70827852254780088</v>
+        <v>3.2434869022012203E-2</v>
       </c>
       <c r="B214" s="2">
         <v>119</v>
@@ -6636,7 +6636,7 @@
     <row r="215" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A215" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.43815479876878893</v>
+        <v>0.28665767842648648</v>
       </c>
       <c r="B215" s="2">
         <v>145</v>
@@ -6663,7 +6663,7 @@
     <row r="216" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A216" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.83299465360262692</v>
+        <v>0.83768352224494858</v>
       </c>
       <c r="B216" s="2">
         <v>40</v>
@@ -6687,7 +6687,7 @@
     <row r="217" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A217" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.86494252420816375</v>
+        <v>0.38857753554345431</v>
       </c>
       <c r="B217" s="2">
         <v>113</v>
@@ -6711,7 +6711,7 @@
     <row r="218" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A218" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.63840841877786769</v>
+        <v>0.346926951378286</v>
       </c>
       <c r="B218" s="2">
         <v>105</v>
@@ -6735,7 +6735,7 @@
     <row r="219" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A219" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.70139950992751565</v>
+        <v>0.15770028041297901</v>
       </c>
       <c r="B219" s="2">
         <v>67</v>
@@ -6759,7 +6759,7 @@
     <row r="220" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A220" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>7.3521176804308253E-2</v>
+        <v>0.83172705298716865</v>
       </c>
       <c r="B220" s="2">
         <v>152</v>
@@ -6783,7 +6783,7 @@
     <row r="221" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A221" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.46906565100382802</v>
+        <v>0.71252703947229468</v>
       </c>
       <c r="B221" s="2">
         <v>99</v>
@@ -6807,7 +6807,7 @@
     <row r="222" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A222" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.80560619325364269</v>
+        <v>0.87903232807084208</v>
       </c>
       <c r="B222" s="2">
         <v>78</v>
@@ -6828,7 +6828,7 @@
     <row r="223" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A223" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.80382238346227397</v>
+        <v>0.64477223029181641</v>
       </c>
       <c r="B223" s="2">
         <v>187</v>
@@ -6849,7 +6849,7 @@
     <row r="224" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A224" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.99890939740347473</v>
+        <v>0.18091684933928942</v>
       </c>
       <c r="B224" s="2">
         <v>98</v>
@@ -6873,7 +6873,7 @@
     <row r="225" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A225" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.12299854737392013</v>
+        <v>0.48866310812948321</v>
       </c>
       <c r="B225" s="2">
         <v>107</v>
@@ -6897,7 +6897,7 @@
     <row r="226" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A226" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.19367788172346501</v>
+        <v>0.8372037814437554</v>
       </c>
       <c r="B226" s="2">
         <v>46</v>
@@ -6918,7 +6918,7 @@
     <row r="227" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A227" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.31736623129415265</v>
+        <v>2.0395090247183001E-2</v>
       </c>
       <c r="B227" s="2">
         <v>144</v>
@@ -6939,7 +6939,7 @@
     <row r="228" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A228" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.23735056206774718</v>
+        <v>0.26736268112178085</v>
       </c>
       <c r="B228" s="2">
         <v>19</v>
@@ -6960,7 +6960,7 @@
     <row r="229" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A229" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.97303801296877312</v>
+        <v>0.22589961238410572</v>
       </c>
       <c r="B229" s="2">
         <v>156</v>
@@ -6987,7 +6987,7 @@
     <row r="230" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A230" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.6678470781109711</v>
+        <v>0.49602399383366458</v>
       </c>
       <c r="B230" s="2">
         <v>203</v>
@@ -7089,7 +7089,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L230"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A216" workbookViewId="0">
+    <sheetView topLeftCell="A216" workbookViewId="0">
       <selection activeCell="A391" sqref="A231:XFD391"/>
     </sheetView>
   </sheetViews>
